--- a/骨干网问题1try/数据/城市数据.xlsx
+++ b/骨干网问题1try/数据/城市数据.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>地级市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,10 @@
   </si>
   <si>
     <t>揭阳三市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正后数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,6 +357,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,16 +653,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
@@ -667,80 +674,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>27</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10" t="s">
+      <c r="R2" s="11"/>
+      <c r="S2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="10"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -753,40 +760,40 @@
         <v>34.4</v>
       </c>
       <c r="D3" s="8">
-        <f>100*34.4/C3</f>
+        <f t="shared" ref="D3:D19" si="0">100*34.4/C3</f>
         <v>100</v>
       </c>
       <c r="E3" s="8">
         <v>5.5355999999999996</v>
       </c>
       <c r="F3" s="8">
-        <f>100*LN(E3)/LN(5.5356)</f>
+        <f t="shared" ref="F3:F19" si="1">100*LN(E3)/LN(5.5356)</f>
         <v>100</v>
       </c>
       <c r="G3" s="8">
         <v>1490.44</v>
       </c>
       <c r="H3" s="8">
-        <f>G3/14.9044</f>
+        <f t="shared" ref="H3:H19" si="2">G3/14.9044</f>
         <v>100</v>
       </c>
       <c r="I3" s="8">
-        <f>D3*0.0725+F3*0.2276+H3*0.6999</f>
+        <f t="shared" ref="I3:I19" si="3">D3*0.0725+F3*0.2276+H3*0.6999</f>
         <v>100</v>
       </c>
       <c r="J3" s="8">
         <v>6.5625</v>
       </c>
       <c r="K3" s="8">
-        <f>I3/J3</f>
+        <f t="shared" ref="K3:K24" si="4">I3/J3</f>
         <v>15.238095238095237</v>
       </c>
       <c r="L3" s="1">
-        <f>0.058356310288995*I3</f>
+        <f t="shared" ref="L3:L24" si="5">0.058356310288995*I3</f>
         <v>5.8356310288994999</v>
       </c>
       <c r="M3" s="8">
-        <f>ROUND(L3*10,0)*100</f>
+        <f t="shared" ref="M3:M24" si="6">ROUND(L3*10,0)*100</f>
         <v>5800</v>
       </c>
       <c r="N3" s="8"/>
@@ -820,40 +827,40 @@
         <v>34.4</v>
       </c>
       <c r="D4" s="3">
-        <f>100*34.4/C4</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E4" s="5">
         <v>4.9630000000000001</v>
       </c>
       <c r="F4" s="5">
-        <f>100*LN(E4)/LN(5.5356)</f>
+        <f t="shared" si="1"/>
         <v>93.619122999690859</v>
       </c>
       <c r="G4" s="3">
         <v>790.57</v>
       </c>
       <c r="H4" s="3">
-        <f>G4/14.9044</f>
+        <f t="shared" si="2"/>
         <v>53.042725638066614</v>
       </c>
       <c r="I4" s="3">
-        <f>D4*0.0725+F4*0.2276+H4*0.6999</f>
+        <f t="shared" si="3"/>
         <v>65.682316068812455</v>
       </c>
       <c r="J4" s="8">
         <v>6.5625</v>
       </c>
       <c r="K4" s="8">
-        <f>I4/J4</f>
+        <f t="shared" si="4"/>
         <v>10.008733877152373</v>
       </c>
       <c r="L4" s="5">
-        <f>0.058356310288995*I4</f>
+        <f t="shared" si="5"/>
         <v>3.832977617011462</v>
       </c>
       <c r="M4" s="3">
-        <f>ROUND(L4*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>3800</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -863,23 +870,23 @@
         <v>-1</v>
       </c>
       <c r="P4" s="1">
-        <f>O4</f>
+        <f t="shared" ref="P4:P24" si="7">O4</f>
         <v>-1</v>
       </c>
       <c r="Q4" s="3">
-        <f>ROUNDUP(M4/600,0)</f>
+        <f t="shared" ref="Q4:Q10" si="8">ROUNDUP(M4/600,0)</f>
         <v>7</v>
       </c>
       <c r="R4">
-        <f>Q4*1.25</f>
+        <f t="shared" ref="R4:R10" si="9">Q4*1.25</f>
         <v>8.75</v>
       </c>
       <c r="S4" s="3">
-        <f>ROUNDUP(M4/800,0)</f>
+        <f t="shared" ref="S4:S24" si="10">ROUNDUP(M4/800,0)</f>
         <v>5</v>
       </c>
       <c r="T4">
-        <f>S4*1.5</f>
+        <f t="shared" ref="T4:T24" si="11">S4*1.5</f>
         <v>7.5</v>
       </c>
     </row>
@@ -894,40 +901,40 @@
         <v>30.6</v>
       </c>
       <c r="D5" s="3">
-        <f>100*34.4/C5</f>
+        <f t="shared" si="0"/>
         <v>112.41830065359477</v>
       </c>
       <c r="E5" s="5">
         <v>4.9330999999999996</v>
       </c>
       <c r="F5" s="5">
-        <f>100*LN(E5)/LN(5.5356)</f>
+        <f t="shared" si="1"/>
         <v>93.265990516310183</v>
       </c>
       <c r="G5" s="3">
         <v>839.22</v>
       </c>
       <c r="H5" s="3">
-        <f>G5/14.9044</f>
+        <f t="shared" si="2"/>
         <v>56.306862403048761</v>
       </c>
       <c r="I5" s="3">
-        <f>D5*0.0725+F5*0.2276+H5*0.6999</f>
+        <f t="shared" si="3"/>
         <v>68.786839234791643</v>
       </c>
       <c r="J5" s="8">
         <v>6.5625</v>
       </c>
       <c r="K5" s="8">
-        <f>I5/J5</f>
+        <f t="shared" si="4"/>
         <v>10.481804073873013</v>
       </c>
       <c r="L5" s="5">
-        <f>0.058356310288995*I5</f>
+        <f t="shared" si="5"/>
         <v>4.0141461341847169</v>
       </c>
       <c r="M5" s="3">
-        <f>ROUND(L5*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>4000</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -937,23 +944,23 @@
         <v>-1</v>
       </c>
       <c r="P5" s="1">
-        <f>O5</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="Q5" s="3">
-        <f>ROUNDUP(M5/600,0)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="R5">
-        <f>Q5*1.25</f>
+        <f t="shared" si="9"/>
         <v>8.75</v>
       </c>
       <c r="S5" s="3">
-        <f>ROUNDUP(M5/800,0)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T5">
-        <f>S5*1.5</f>
+        <f t="shared" si="11"/>
         <v>7.5</v>
       </c>
     </row>
@@ -968,40 +975,40 @@
         <v>34.5</v>
       </c>
       <c r="D6" s="4">
-        <f>100*34.4/C6</f>
+        <f t="shared" si="0"/>
         <v>99.710144927536234</v>
       </c>
       <c r="E6" s="5">
         <v>2.9546999999999999</v>
       </c>
       <c r="F6" s="5">
-        <f>100*LN(E6)/LN(5.5356)</f>
+        <f t="shared" si="1"/>
         <v>63.312128758726843</v>
       </c>
       <c r="G6" s="4">
         <v>459.82</v>
       </c>
       <c r="H6" s="4">
-        <f>G6/14.9044</f>
+        <f t="shared" si="2"/>
         <v>30.851292235849815</v>
       </c>
       <c r="I6" s="4">
-        <f>D6*0.0725+F6*0.2276+H6*0.6999</f>
+        <f t="shared" si="3"/>
         <v>43.231645448603892</v>
       </c>
       <c r="J6" s="8">
         <v>6.5625</v>
       </c>
       <c r="K6" s="8">
-        <f>I6/J6</f>
+        <f t="shared" si="4"/>
         <v>6.5876793064539267</v>
       </c>
       <c r="L6" s="5">
-        <f>0.058356310288995*I6</f>
+        <f t="shared" si="5"/>
         <v>2.5228393161025475</v>
       </c>
       <c r="M6" s="4">
-        <f>ROUND(L6*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>2500</v>
       </c>
       <c r="N6" s="4" t="s">
@@ -1012,23 +1019,23 @@
         <v>7</v>
       </c>
       <c r="P6" s="1">
-        <f>O6</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="Q6" s="4">
-        <f>ROUNDUP(M6/600,0)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="R6">
-        <f>Q6*1.25</f>
+        <f t="shared" si="9"/>
         <v>6.25</v>
       </c>
       <c r="S6" s="4">
-        <f>ROUNDUP(M6/800,0)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="T6">
-        <f>S6*1.5</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
@@ -1043,40 +1050,40 @@
         <v>34.5</v>
       </c>
       <c r="D7" s="4">
-        <f>100*34.4/C7</f>
+        <f t="shared" si="0"/>
         <v>99.710144927536234</v>
       </c>
       <c r="E7" s="8">
         <v>2.2368999999999999</v>
       </c>
       <c r="F7" s="8">
-        <f>100*LN(E7)/LN(5.5356)</f>
+        <f t="shared" si="1"/>
         <v>47.048328480415442</v>
       </c>
       <c r="G7" s="4">
         <v>387.4</v>
       </c>
       <c r="H7" s="4">
-        <f>G7/14.9044</f>
+        <f t="shared" si="2"/>
         <v>25.992324414266925</v>
       </c>
       <c r="I7" s="4">
-        <f>D7*0.0725+F7*0.2276+H7*0.6999</f>
+        <f t="shared" si="3"/>
         <v>36.12921292693435</v>
       </c>
       <c r="J7" s="8">
         <v>6.5625</v>
       </c>
       <c r="K7" s="8">
-        <f>I7/J7</f>
+        <f t="shared" si="4"/>
         <v>5.5054038745804723</v>
       </c>
       <c r="L7" s="5">
-        <f>0.058356310288995*I7</f>
+        <f t="shared" si="5"/>
         <v>2.1083675600613505</v>
       </c>
       <c r="M7" s="4">
-        <f>ROUND(L7*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>2100</v>
       </c>
       <c r="N7" s="4" t="s">
@@ -1087,23 +1094,23 @@
         <v>6</v>
       </c>
       <c r="P7" s="8">
-        <f>O7</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Q7" s="4">
-        <f>ROUNDUP(M7/600,0)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="R7">
-        <f>Q7*1.25</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="S7" s="4">
-        <f>ROUNDUP(M7/800,0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="T7">
-        <f>S7*1.5</f>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
     </row>
@@ -1118,40 +1125,40 @@
         <v>33.5</v>
       </c>
       <c r="D8" s="4">
-        <f>100*34.4/C8</f>
+        <f t="shared" si="0"/>
         <v>102.68656716417911</v>
       </c>
       <c r="E8" s="8">
         <v>4.6864999999999997</v>
       </c>
       <c r="F8" s="8">
-        <f>100*LN(E8)/LN(5.5356)</f>
+        <f t="shared" si="1"/>
         <v>90.269171930558173</v>
       </c>
       <c r="G8" s="4">
         <v>331</v>
       </c>
       <c r="H8" s="4">
-        <f>G8/14.9044</f>
+        <f t="shared" si="2"/>
         <v>22.208206972437669</v>
       </c>
       <c r="I8" s="4">
-        <f>D8*0.0725+F8*0.2276+H8*0.6999</f>
+        <f t="shared" si="3"/>
         <v>43.533563710807151</v>
       </c>
       <c r="J8" s="8">
         <v>6.5625</v>
       </c>
       <c r="K8" s="8">
-        <f>I8/J8</f>
+        <f t="shared" si="4"/>
         <v>6.6336858987896612</v>
       </c>
       <c r="L8" s="5">
-        <f>0.058356310288995*I8</f>
+        <f t="shared" si="5"/>
         <v>2.5404581518935947</v>
       </c>
       <c r="M8" s="4">
-        <f>ROUND(L8*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>2500</v>
       </c>
       <c r="N8" s="4" t="s">
@@ -1162,23 +1169,23 @@
         <v>7</v>
       </c>
       <c r="P8" s="8">
-        <f>O8</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="Q8" s="4">
-        <f>ROUNDUP(M8/600,0)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="R8">
-        <f>Q8*1.25</f>
+        <f t="shared" si="9"/>
         <v>6.25</v>
       </c>
       <c r="S8" s="4">
-        <f>ROUNDUP(M8/800,0)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="T8">
-        <f>S8*1.5</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
@@ -1193,40 +1200,40 @@
         <v>31.7</v>
       </c>
       <c r="D9" s="4">
-        <f>100*34.4/C9</f>
+        <f t="shared" si="0"/>
         <v>108.51735015772871</v>
       </c>
       <c r="E9" s="8">
         <v>2.4070999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f>100*LN(E9)/LN(5.5356)</f>
+        <f t="shared" si="1"/>
         <v>51.333726230754039</v>
       </c>
       <c r="G9" s="4">
         <v>415.17</v>
       </c>
       <c r="H9" s="4">
-        <f>G9/14.9044</f>
+        <f t="shared" si="2"/>
         <v>27.855532594401652</v>
       </c>
       <c r="I9" s="4">
-        <f>D9*0.0725+F9*0.2276+H9*0.6999</f>
+        <f t="shared" si="3"/>
         <v>39.04715123937666</v>
       </c>
       <c r="J9" s="8">
         <v>6.5625</v>
       </c>
       <c r="K9" s="8">
-        <f>I9/J9</f>
+        <f t="shared" si="4"/>
         <v>5.9500420936193006</v>
       </c>
       <c r="L9" s="5">
-        <f>0.058356310288995*I9</f>
+        <f t="shared" si="5"/>
         <v>2.2786476736263803</v>
       </c>
       <c r="M9" s="4">
-        <f>ROUND(L9*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>2300</v>
       </c>
       <c r="N9" s="4" t="s">
@@ -1237,23 +1244,23 @@
         <v>6</v>
       </c>
       <c r="P9" s="8">
-        <f>O9</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Q9" s="4">
-        <f>ROUNDUP(M9/600,0)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="R9">
-        <f>Q9*1.25</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="S9" s="4">
-        <f>ROUNDUP(M9/800,0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="T9">
-        <f>S9*1.5</f>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
     </row>
@@ -1268,40 +1275,40 @@
         <v>33.4</v>
       </c>
       <c r="D10" s="4">
-        <f>100*34.4/C10</f>
+        <f t="shared" si="0"/>
         <v>102.99401197604791</v>
       </c>
       <c r="E10" s="5">
         <v>4.8106999999999998</v>
       </c>
       <c r="F10" s="5">
-        <f>100*LN(E10)/LN(5.5356)</f>
+        <f t="shared" si="1"/>
         <v>91.797723184695442</v>
       </c>
       <c r="G10" s="4">
         <v>189.11</v>
       </c>
       <c r="H10" s="4">
-        <f>G10/14.9044</f>
+        <f t="shared" si="2"/>
         <v>12.688199457878211</v>
       </c>
       <c r="I10" s="4">
-        <f>D10*0.0725+F10*0.2276+H10*0.6999</f>
+        <f t="shared" si="3"/>
         <v>37.240698465669112</v>
       </c>
       <c r="J10" s="8">
         <v>6.5625</v>
       </c>
       <c r="K10" s="8">
-        <f>I10/J10</f>
+        <f t="shared" si="4"/>
         <v>5.6747730995305314</v>
       </c>
       <c r="L10" s="5">
-        <f>0.058356310288995*I10</f>
+        <f t="shared" si="5"/>
         <v>2.1732297550414867</v>
       </c>
       <c r="M10" s="4">
-        <f>ROUND(L10*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>2200</v>
       </c>
       <c r="N10" s="4" t="s">
@@ -1312,23 +1319,23 @@
         <v>6</v>
       </c>
       <c r="P10" s="1">
-        <f>O10</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Q10" s="4">
-        <f>ROUNDUP(M10/600,0)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="R10">
-        <f>Q10*1.25</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="S10" s="4">
-        <f>ROUNDUP(M10/800,0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="T10">
-        <f>S10*1.5</f>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
     </row>
@@ -1343,40 +1350,40 @@
         <v>32.1</v>
       </c>
       <c r="D11" s="2">
-        <f>100*34.4/C11</f>
+        <f t="shared" si="0"/>
         <v>107.16510903426791</v>
       </c>
       <c r="E11" s="5">
         <v>5.7542999999999997</v>
       </c>
       <c r="F11" s="5">
-        <f>100*LN(E11)/LN(5.5356)</f>
+        <f t="shared" si="1"/>
         <v>102.26434320469266</v>
       </c>
       <c r="G11" s="2">
         <v>1302.6600000000001</v>
       </c>
       <c r="H11" s="2">
-        <f>G11/14.9044</f>
+        <f t="shared" si="2"/>
         <v>87.401035935696839</v>
       </c>
       <c r="I11" s="2">
-        <f>D11*0.0725+F11*0.2276+H11*0.6999</f>
+        <f t="shared" si="3"/>
         <v>92.216819969766689</v>
       </c>
       <c r="J11" s="8">
         <v>6.5625</v>
       </c>
       <c r="K11" s="8">
-        <f>I11/J11</f>
+        <f t="shared" si="4"/>
         <v>14.052086852535876</v>
       </c>
       <c r="L11" s="5">
-        <f>0.058356310288995*I11</f>
+        <f t="shared" si="5"/>
         <v>5.3814333600200959</v>
       </c>
       <c r="M11" s="2">
-        <f>ROUND(L11*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>5400</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -1386,7 +1393,7 @@
         <v>-1</v>
       </c>
       <c r="P11" s="1">
-        <f>O11</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="Q11" s="2">
@@ -1397,11 +1404,11 @@
         <v>-1</v>
       </c>
       <c r="S11" s="2">
-        <f>ROUNDUP(M11/800,0)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="T11">
-        <f>S11*1.5</f>
+        <f t="shared" si="11"/>
         <v>10.5</v>
       </c>
     </row>
@@ -1416,40 +1423,40 @@
         <v>31.6</v>
       </c>
       <c r="D12" s="4">
-        <f>100*34.4/C12</f>
+        <f t="shared" si="0"/>
         <v>108.86075949367088</v>
       </c>
       <c r="E12" s="5">
         <v>3.3929999999999998</v>
       </c>
       <c r="F12" s="5">
-        <f>100*LN(E12)/LN(5.5356)</f>
+        <f t="shared" si="1"/>
         <v>71.395191291626574</v>
       </c>
       <c r="G12" s="4">
         <v>483</v>
       </c>
       <c r="H12" s="4">
-        <f>G12/14.9044</f>
+        <f t="shared" si="2"/>
         <v>32.406537666729285</v>
       </c>
       <c r="I12" s="4">
-        <f>D12*0.0725+F12*0.2276+H12*0.6999</f>
+        <f t="shared" si="3"/>
         <v>46.82328631420917</v>
       </c>
       <c r="J12" s="8">
         <v>6.5625</v>
       </c>
       <c r="K12" s="8">
-        <f>I12/J12</f>
+        <f t="shared" si="4"/>
         <v>7.134976962165207</v>
       </c>
       <c r="L12" s="5">
-        <f>0.058356310288995*I12</f>
+        <f t="shared" si="5"/>
         <v>2.7324342249024434</v>
       </c>
       <c r="M12" s="4">
-        <f>ROUND(L12*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>2700</v>
       </c>
       <c r="N12" s="4" t="s">
@@ -1460,23 +1467,23 @@
         <v>7</v>
       </c>
       <c r="P12" s="1">
-        <f>O12</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="Q12" s="4">
-        <f>ROUNDUP(M12/600,0)</f>
+        <f t="shared" ref="Q12:Q24" si="12">ROUNDUP(M12/600,0)</f>
         <v>5</v>
       </c>
       <c r="R12">
-        <f>Q12*1.25</f>
+        <f t="shared" ref="R12:R24" si="13">Q12*1.25</f>
         <v>6.25</v>
       </c>
       <c r="S12" s="4">
-        <f>ROUNDUP(M12/800,0)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="T12">
-        <f>S12*1.5</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
@@ -1491,40 +1498,40 @@
         <v>31.22</v>
       </c>
       <c r="D13" s="4">
-        <f>100*34.4/C13</f>
+        <f t="shared" si="0"/>
         <v>110.18577834721333</v>
       </c>
       <c r="E13" s="5">
         <v>1.9238999999999999</v>
       </c>
       <c r="F13" s="5">
-        <f>100*LN(E13)/LN(5.5356)</f>
+        <f t="shared" si="1"/>
         <v>38.23950389275646</v>
       </c>
       <c r="G13" s="4">
         <v>252.69</v>
       </c>
       <c r="H13" s="4">
-        <f>G13/14.9044</f>
+        <f t="shared" si="2"/>
         <v>16.954053836450981</v>
       </c>
       <c r="I13" s="4">
-        <f>D13*0.0725+F13*0.2276+H13*0.6999</f>
+        <f t="shared" si="3"/>
         <v>28.557922296296379</v>
       </c>
       <c r="J13" s="8">
         <v>6.5625</v>
       </c>
       <c r="K13" s="8">
-        <f>I13/J13</f>
+        <f t="shared" si="4"/>
         <v>4.3516833975308771</v>
       </c>
       <c r="L13" s="5">
-        <f>0.058356310288995*I13</f>
+        <f t="shared" si="5"/>
         <v>1.6665349747316802</v>
       </c>
       <c r="M13" s="4">
-        <f>ROUND(L13*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>1700</v>
       </c>
       <c r="N13" s="4" t="s">
@@ -1535,23 +1542,23 @@
         <v>5</v>
       </c>
       <c r="P13" s="1">
-        <f>O13</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q13" s="4">
-        <f>ROUNDUP(M13/600,0)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="R13">
-        <f>Q13*1.25</f>
+        <f t="shared" si="13"/>
         <v>3.75</v>
       </c>
       <c r="S13" s="4">
-        <f>ROUNDUP(M13/800,0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="T13">
-        <f>S13*1.5</f>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
     </row>
@@ -1566,40 +1573,40 @@
         <v>34.700000000000003</v>
       </c>
       <c r="D14" s="4">
-        <f>100*34.4/C14</f>
+        <f t="shared" si="0"/>
         <v>99.135446685878961</v>
       </c>
       <c r="E14" s="5">
         <v>2.3675999999999999</v>
       </c>
       <c r="F14" s="5">
-        <f>100*LN(E14)/LN(5.5356)</f>
+        <f t="shared" si="1"/>
         <v>50.366807111460538</v>
       </c>
       <c r="G14" s="4">
         <v>299.76</v>
       </c>
       <c r="H14" s="4">
-        <f>G14/14.9044</f>
+        <f t="shared" si="2"/>
         <v>20.112181637637207</v>
       </c>
       <c r="I14" s="4">
-        <f>D14*0.0725+F14*0.2276+H14*0.6999</f>
+        <f t="shared" si="3"/>
         <v>32.727321111476925</v>
       </c>
       <c r="J14" s="8">
         <v>6.5625</v>
       </c>
       <c r="K14" s="8">
-        <f>I14/J14</f>
+        <f t="shared" si="4"/>
         <v>4.9870203598441032</v>
       </c>
       <c r="L14" s="5">
-        <f>0.058356310288995*I14</f>
+        <f t="shared" si="5"/>
         <v>1.9098457057089242</v>
       </c>
       <c r="M14" s="4">
-        <f>ROUND(L14*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>1900</v>
       </c>
       <c r="N14" s="4" t="s">
@@ -1610,23 +1617,23 @@
         <v>5</v>
       </c>
       <c r="P14" s="1">
-        <f>O14</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q14" s="4">
-        <f>ROUNDUP(M14/600,0)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="R14">
-        <f>Q14*1.25</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="S14" s="4">
-        <f>ROUNDUP(M14/800,0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="T14">
-        <f>S14*1.5</f>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
     </row>
@@ -1641,40 +1648,40 @@
         <v>31.7</v>
       </c>
       <c r="D15" s="4">
-        <f>100*34.4/C15</f>
+        <f t="shared" si="0"/>
         <v>108.51735015772871</v>
       </c>
       <c r="E15" s="5">
         <v>1.9397</v>
       </c>
       <c r="F15" s="5">
-        <f>100*LN(E15)/LN(5.5356)</f>
+        <f t="shared" si="1"/>
         <v>38.717469430739108</v>
       </c>
       <c r="G15" s="4">
         <v>309.39</v>
       </c>
       <c r="H15" s="4">
-        <f>G15/14.9044</f>
+        <f t="shared" si="2"/>
         <v>20.758299562545286</v>
       </c>
       <c r="I15" s="4">
-        <f>D15*0.0725+F15*0.2276+H15*0.6999</f>
+        <f t="shared" si="3"/>
         <v>31.208337792696994</v>
       </c>
       <c r="J15" s="8">
         <v>6.5625</v>
       </c>
       <c r="K15" s="8">
-        <f>I15/J15</f>
+        <f t="shared" si="4"/>
         <v>4.7555562350776377</v>
       </c>
       <c r="L15" s="5">
-        <f>0.058356310288995*I15</f>
+        <f t="shared" si="5"/>
         <v>1.8212034438343951</v>
       </c>
       <c r="M15" s="4">
-        <f>ROUND(L15*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
       <c r="N15" s="4" t="s">
@@ -1685,23 +1692,23 @@
         <v>5</v>
       </c>
       <c r="P15" s="1">
-        <f>O15</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q15" s="4">
-        <f>ROUNDUP(M15/600,0)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="R15">
-        <f>Q15*1.25</f>
+        <f t="shared" si="13"/>
         <v>3.75</v>
       </c>
       <c r="S15" s="4">
-        <f>ROUNDUP(M15/800,0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="T15">
-        <f>S15*1.5</f>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
     </row>
@@ -1716,40 +1723,40 @@
         <v>32.9</v>
       </c>
       <c r="D16" s="4">
-        <f>100*34.4/C16</f>
+        <f t="shared" si="0"/>
         <v>104.55927051671733</v>
       </c>
       <c r="E16" s="5">
         <v>2.3149999999999999</v>
       </c>
       <c r="F16" s="5">
-        <f>100*LN(E16)/LN(5.5356)</f>
+        <f t="shared" si="1"/>
         <v>49.053863165491016</v>
       </c>
       <c r="G16" s="4">
         <v>255.56</v>
       </c>
       <c r="H16" s="4">
-        <f>G16/14.9044</f>
+        <f t="shared" si="2"/>
         <v>17.146614422586619</v>
       </c>
       <c r="I16" s="4">
-        <f>D16*0.0725+F16*0.2276+H16*0.6999</f>
+        <f t="shared" si="3"/>
         <v>30.746121803296134</v>
       </c>
       <c r="J16" s="8">
         <v>6.5625</v>
       </c>
       <c r="K16" s="8">
-        <f>I16/J16</f>
+        <f t="shared" si="4"/>
         <v>4.6851233224070299</v>
       </c>
       <c r="L16" s="5">
-        <f>0.058356310288995*I16</f>
+        <f t="shared" si="5"/>
         <v>1.7942302241363839</v>
       </c>
       <c r="M16" s="4">
-        <f>ROUND(L16*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
       <c r="N16" s="4" t="s">
@@ -1760,23 +1767,23 @@
         <v>5</v>
       </c>
       <c r="P16" s="1">
-        <f>O16</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q16" s="4">
-        <f>ROUNDUP(M16/600,0)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="R16">
-        <f>Q16*1.25</f>
+        <f t="shared" si="13"/>
         <v>3.75</v>
       </c>
       <c r="S16" s="4">
-        <f>ROUNDUP(M16/800,0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="T16">
-        <f>S16*1.5</f>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
     </row>
@@ -1791,40 +1798,40 @@
         <v>32.5</v>
       </c>
       <c r="D17" s="4">
-        <f>100*34.4/C17</f>
+        <f t="shared" si="0"/>
         <v>105.84615384615384</v>
       </c>
       <c r="E17" s="4">
         <v>2.1427</v>
       </c>
       <c r="F17" s="4">
-        <f>100*LN(E17)/LN(5.5356)</f>
+        <f t="shared" si="1"/>
         <v>44.534054068969688</v>
       </c>
       <c r="G17" s="4">
         <v>733.2</v>
       </c>
       <c r="H17" s="4">
-        <f>G17/14.9044</f>
+        <f t="shared" si="2"/>
         <v>49.19352674378036</v>
       </c>
       <c r="I17" s="4">
-        <f>D17*0.0725+F17*0.2276+H17*0.6999</f>
+        <f t="shared" si="3"/>
         <v>52.240346227915524</v>
       </c>
       <c r="J17" s="8">
         <v>6.5625</v>
       </c>
       <c r="K17" s="8">
-        <f>I17/J17</f>
+        <f t="shared" si="4"/>
         <v>7.9604337109204604</v>
       </c>
       <c r="L17" s="5">
-        <f>0.058356310288995*I17</f>
+        <f t="shared" si="5"/>
         <v>3.048553854080768</v>
       </c>
       <c r="M17" s="4">
-        <f>ROUND(L17*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -1834,23 +1841,23 @@
         <v>-1</v>
       </c>
       <c r="P17" s="4">
-        <f>O17</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="Q17" s="4">
-        <f>ROUNDUP(M17/600,0)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="R17" s="6">
-        <f>Q17*1.25</f>
+        <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
       <c r="S17" s="4">
-        <f>ROUNDUP(M17/800,0)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="T17" s="6">
-        <f>S17*1.5</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
@@ -1865,40 +1872,40 @@
         <v>30.9</v>
       </c>
       <c r="D18" s="4">
-        <f>100*34.4/C18</f>
+        <f t="shared" si="0"/>
         <v>111.32686084142395</v>
       </c>
       <c r="E18" s="4">
         <v>2.1349999999999998</v>
       </c>
       <c r="F18" s="4">
-        <f>100*LN(E18)/LN(5.5356)</f>
+        <f t="shared" si="1"/>
         <v>44.323671330235065</v>
       </c>
       <c r="G18" s="4">
         <v>631.32000000000005</v>
       </c>
       <c r="H18" s="4">
-        <f>G18/14.9044</f>
+        <f t="shared" si="2"/>
         <v>42.357961407369636</v>
       </c>
       <c r="I18" s="4">
-        <f>D18*0.0725+F18*0.2276+H18*0.6999</f>
+        <f t="shared" si="3"/>
         <v>47.805602194782743</v>
       </c>
       <c r="J18" s="8">
         <v>6.5625</v>
       </c>
       <c r="K18" s="8">
-        <f>I18/J18</f>
+        <f t="shared" si="4"/>
         <v>7.2846631915859419</v>
       </c>
       <c r="L18" s="5">
-        <f>0.058356310288995*I18</f>
+        <f t="shared" si="5"/>
         <v>2.7897585552310025</v>
       </c>
       <c r="M18" s="4">
-        <f>ROUND(L18*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>2800</v>
       </c>
       <c r="N18" s="4" t="s">
@@ -1908,23 +1915,23 @@
         <v>-1</v>
       </c>
       <c r="P18" s="4">
-        <f>O18</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="Q18" s="4">
-        <f>ROUNDUP(M18/600,0)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="R18" s="6">
-        <f>Q18*1.25</f>
+        <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
       <c r="S18" s="4">
-        <f>ROUNDUP(M18/800,0)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="T18" s="6">
-        <f>S18*1.5</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
@@ -1939,40 +1946,40 @@
         <v>31.3</v>
       </c>
       <c r="D19" s="4">
-        <f>100*34.4/C19</f>
+        <f t="shared" si="0"/>
         <v>109.90415335463258</v>
       </c>
       <c r="E19" s="5">
         <v>2.1000999999999999</v>
       </c>
       <c r="F19" s="5">
-        <f>100*LN(E19)/LN(5.5356)</f>
+        <f t="shared" si="1"/>
         <v>43.360506042167245</v>
       </c>
       <c r="G19" s="4">
         <v>299.36</v>
       </c>
       <c r="H19" s="4">
-        <f>G19/14.9044</f>
+        <f t="shared" si="2"/>
         <v>20.085343925283809</v>
       </c>
       <c r="I19" s="4">
-        <f>D19*0.0725+F19*0.2276+H19*0.6999</f>
+        <f t="shared" si="3"/>
         <v>31.894634506714262</v>
       </c>
       <c r="J19" s="8">
         <v>6.5625</v>
       </c>
       <c r="K19" s="8">
-        <f>I19/J19</f>
+        <f t="shared" si="4"/>
         <v>4.860134781975507</v>
       </c>
       <c r="L19" s="5">
-        <f>0.058356310288995*I19</f>
+        <f t="shared" si="5"/>
         <v>1.8612531878279046</v>
       </c>
       <c r="M19" s="4">
-        <f>ROUND(L19*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>1900</v>
       </c>
       <c r="N19" s="4" t="s">
@@ -1983,23 +1990,23 @@
         <v>5</v>
       </c>
       <c r="P19" s="1">
-        <f>O19</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q19" s="4">
-        <f>ROUNDUP(M19/600,0)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="R19">
-        <f>Q19*1.25</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="S19" s="4">
-        <f>ROUNDUP(M19/800,0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="T19">
-        <f>S19*1.5</f>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
     </row>
@@ -2024,15 +2031,15 @@
         <v>6.5625</v>
       </c>
       <c r="K20" s="8">
-        <f>I20/J20</f>
+        <f t="shared" si="4"/>
         <v>18.47009523809524</v>
       </c>
       <c r="L20" s="5">
-        <f>0.058356310288995*I20</f>
+        <f t="shared" si="5"/>
         <v>7.073368370129085</v>
       </c>
       <c r="M20" s="4">
-        <f>ROUND(L20*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>7100</v>
       </c>
       <c r="N20" s="4"/>
@@ -2041,23 +2048,23 @@
         <v>18</v>
       </c>
       <c r="P20" s="8">
-        <f>O20</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="Q20" s="4">
-        <f>ROUNDUP(M20/600,0)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="R20">
-        <f>Q20*1.25</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="S20" s="4">
-        <f>ROUNDUP(M20/800,0)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="T20">
-        <f>S20*1.5</f>
+        <f t="shared" si="11"/>
         <v>13.5</v>
       </c>
     </row>
@@ -2097,15 +2104,15 @@
         <v>6.5625</v>
       </c>
       <c r="K21" s="8">
-        <f>I21/J21</f>
+        <f t="shared" si="4"/>
         <v>5.782275519075009</v>
       </c>
       <c r="L21" s="5">
-        <f>0.058356310288995*I21</f>
+        <f t="shared" si="5"/>
         <v>2.2143992349123809</v>
       </c>
       <c r="M21" s="4">
-        <f>ROUND(L21*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>2200</v>
       </c>
       <c r="N21" s="4" t="s">
@@ -2116,23 +2123,23 @@
         <v>6</v>
       </c>
       <c r="P21" s="8">
-        <f>O21</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Q21" s="4">
-        <f>ROUNDUP(M21/600,0)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="R21">
-        <f>Q21*1.25</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="S21" s="4">
-        <f>ROUNDUP(M21/800,0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="T21">
-        <f>S21*1.5</f>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
     </row>
@@ -2172,15 +2179,15 @@
         <v>6.5625</v>
       </c>
       <c r="K22" s="8">
-        <f>I22/J22</f>
-        <v>6.9541057994549433</v>
+        <f>I22/J22*0</f>
+        <v>0</v>
       </c>
       <c r="L22" s="5">
-        <f>0.058356310288995*I22</f>
+        <f t="shared" si="5"/>
         <v>2.6631672100391683</v>
       </c>
       <c r="M22" s="4">
-        <f>ROUND(L22*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>2700</v>
       </c>
       <c r="N22" s="4" t="s">
@@ -2190,23 +2197,23 @@
         <v>-1</v>
       </c>
       <c r="P22" s="4">
-        <f>O22</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="Q22" s="4">
-        <f>ROUNDUP(M22/600,0)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="R22" s="6">
-        <f>Q22*1.25</f>
+        <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
       <c r="S22" s="4">
-        <f>ROUNDUP(M22/800,0)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="T22" s="6">
-        <f>S22*1.5</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
@@ -2246,15 +2253,15 @@
         <v>6.5625</v>
       </c>
       <c r="K23" s="8">
-        <f>I23/J23</f>
-        <v>7.0142797394457022</v>
+        <f>I23/J23*0</f>
+        <v>0</v>
       </c>
       <c r="L23" s="5">
-        <f>0.058356310288995*I23</f>
+        <f t="shared" si="5"/>
         <v>2.6862116198459352</v>
       </c>
       <c r="M23" s="4">
-        <f>ROUND(L23*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>2700</v>
       </c>
       <c r="N23" s="4" t="s">
@@ -2265,23 +2272,23 @@
         <v>7</v>
       </c>
       <c r="P23" s="1">
-        <f>O23</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="Q23" s="4">
-        <f>ROUNDUP(M23/600,0)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="R23">
-        <f>Q23*1.25</f>
+        <f t="shared" si="13"/>
         <v>6.25</v>
       </c>
       <c r="S23" s="4">
-        <f>ROUNDUP(M23/800,0)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="T23">
-        <f>S23*1.5</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
@@ -2321,15 +2328,15 @@
         <v>6.5625</v>
       </c>
       <c r="K24" s="8">
-        <f>I24/J24</f>
-        <v>4.5035052438030876</v>
+        <f>I24/J24*0</f>
+        <v>0</v>
       </c>
       <c r="L24" s="8">
-        <f>0.058356310288995*I24</f>
+        <f t="shared" si="5"/>
         <v>1.7246771679078969</v>
       </c>
       <c r="M24" s="4">
-        <f>ROUND(L24*10,0)*100</f>
+        <f t="shared" si="6"/>
         <v>1700</v>
       </c>
       <c r="N24" s="4" t="s">
@@ -2340,23 +2347,23 @@
         <v>5</v>
       </c>
       <c r="P24" s="8">
-        <f>O24</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q24" s="4">
-        <f>ROUNDUP(M24/600,0)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="R24">
-        <f>Q24*1.25</f>
+        <f t="shared" si="13"/>
         <v>3.75</v>
       </c>
       <c r="S24" s="4">
-        <f>ROUNDUP(M24/800,0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="T24">
-        <f>S24*1.5</f>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
     </row>
@@ -2372,8 +2379,8 @@
         <v>6.5625</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" ref="K4:K25" si="0">I25/J25</f>
-        <v>168.87615781601119</v>
+        <f>SUM(K3:K21)</f>
+        <v>150.40426703330738</v>
       </c>
       <c r="L25" s="5">
         <f>SUM(L3:L24)</f>
@@ -2384,36 +2391,36 @@
         <v>64600</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" ref="O11:O25" si="1">ROUNDUP(M25/400,0)</f>
+        <f t="shared" ref="O25" si="14">ROUNDUP(M25/400,0)</f>
         <v>162</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" ref="P5:P25" si="2">O25</f>
+        <f t="shared" ref="P25" si="15">O25</f>
         <v>162</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" ref="Q5:Q25" si="3">ROUNDUP(M25/600,0)</f>
+        <f t="shared" ref="Q25" si="16">ROUNDUP(M25/600,0)</f>
         <v>108</v>
       </c>
       <c r="R25">
-        <f t="shared" ref="R6:R25" si="4">Q25*1.25</f>
+        <f t="shared" ref="R25" si="17">Q25*1.25</f>
         <v>135</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" ref="S4:S25" si="5">ROUNDUP(M25/800,0)</f>
+        <f t="shared" ref="S25" si="18">ROUNDUP(M25/800,0)</f>
         <v>81</v>
       </c>
       <c r="T25">
-        <f t="shared" ref="T5:T25" si="6">S25*1.5</f>
+        <f t="shared" ref="T25" si="19">S25*1.5</f>
         <v>121.5</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="I26">
         <f>SUM(I4,I9,I10,I11,I13,I17,I19,I20)</f>
         <v>468.08988877455113</v>
@@ -2451,7 +2458,7 @@
         <v>79.013939987479745</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:D30" si="7">0.058356310288995*C29</f>
+        <f t="shared" ref="D29:D30" si="20">0.058356310288995*C29</f>
         <v>4.6109619990653981</v>
       </c>
     </row>
@@ -2464,7 +2471,7 @@
         <v>78.363640420399989</v>
       </c>
       <c r="D30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>4.5730129157480928</v>
       </c>
       <c r="G30" t="s">
@@ -2505,16 +2512,173 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F33" s="8">
         <f>H30/I30</f>
         <v>6.5625</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F34" s="8" t="e">
         <f>H31/I31</f>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>15.2380952380952</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>10.008733877152373</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>10.481804073873013</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>6.5876793064539267</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>5.5054038745804723</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>6.6336858987896612</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>5.9500420936193006</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>5.6747730995305314</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>14.052086852535876</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>7.134976962165207</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>4.3516833975308771</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>4.9870203598441032</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48">
+        <v>4.7555562350776377</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>4.6851233224070299</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>7.9604337109204604</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>7.2846631915859419</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>4.860134781975507</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <v>18.47009523809524</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>5.782275519075009</v>
       </c>
     </row>
   </sheetData>
@@ -2522,6 +2686,14 @@
     <sortCondition ref="A3:A24"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="H1:H2"/>
@@ -2530,14 +2702,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
